--- a/biology/Zoologie/Frank_Montgomery_Hull/Frank_Montgomery_Hull.xlsx
+++ b/biology/Zoologie/Frank_Montgomery_Hull/Frank_Montgomery_Hull.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frank Montgomery Hull (3 novembre 1901 à Coahoma - 19 juillet 1982) est naturaliste américain spécialisé en entomologie, et plus particulièrement en diptérologie[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frank Montgomery Hull (3 novembre 1901 à Coahoma - 19 juillet 1982) est naturaliste américain spécialisé en entomologie, et plus particulièrement en diptérologie.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>F.M. Hull, « The Morphology and Inter-relationship of the Genera of Syrphid Flies, Recent and Fossil », Transactions of the Zoological Society of London, vol. 26, no 4,‎ 1949
 F.M. Hull, « Robber flies of the world », Bulletin of the United States National Museum, vol. 224,‎ 1962
